--- a/pred_ohlcv/54/2019-11-01 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 ICX ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -408,24 +413,27 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C2" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D2" t="n">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E2" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>388.7981</v>
       </c>
       <c r="G2" t="n">
-        <v>212.8833333333333</v>
+        <v>212.9666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -434,7 +442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C3" t="n">
         <v>212</v>
@@ -446,12 +454,15 @@
         <v>212</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>212.8333333333333</v>
+        <v>212.8833333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>216</v>
+      </c>
+      <c r="C4" t="n">
         <v>212</v>
       </c>
-      <c r="C4" t="n">
-        <v>210</v>
-      </c>
       <c r="D4" t="n">
+        <v>216</v>
+      </c>
+      <c r="E4" t="n">
         <v>212</v>
       </c>
-      <c r="E4" t="n">
-        <v>210</v>
-      </c>
       <c r="F4" t="n">
-        <v>3174.1389</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7166666666667</v>
+        <v>212.8333333333333</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C5" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D5" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E5" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F5" t="n">
-        <v>703.7910000000001</v>
+        <v>3174.1389</v>
       </c>
       <c r="G5" t="n">
-        <v>212.6333333333333</v>
+        <v>212.7166666666667</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D6" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E6" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F6" t="n">
-        <v>955.2521</v>
+        <v>703.7910000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>212.6</v>
+        <v>212.6333333333333</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>210</v>
+      </c>
+      <c r="C7" t="n">
+        <v>210</v>
+      </c>
+      <c r="D7" t="n">
+        <v>210</v>
+      </c>
+      <c r="E7" t="n">
         <v>209</v>
       </c>
-      <c r="C7" t="n">
-        <v>207</v>
-      </c>
-      <c r="D7" t="n">
-        <v>209</v>
-      </c>
-      <c r="E7" t="n">
-        <v>207</v>
-      </c>
       <c r="F7" t="n">
-        <v>1563.8437</v>
+        <v>955.2521</v>
       </c>
       <c r="G7" t="n">
-        <v>212.5166666666667</v>
+        <v>212.6</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C8" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D8" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E8" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" t="n">
-        <v>7400.9711</v>
+        <v>1563.8437</v>
       </c>
       <c r="G8" t="n">
-        <v>212.4</v>
+        <v>212.5166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C9" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D9" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E9" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F9" t="n">
-        <v>2468.675</v>
+        <v>7400.9711</v>
       </c>
       <c r="G9" t="n">
-        <v>212.3666666666667</v>
+        <v>212.4</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C10" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D10" t="n">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E10" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F10" t="n">
-        <v>3613.9235</v>
+        <v>2468.675</v>
       </c>
       <c r="G10" t="n">
-        <v>212.2833333333333</v>
+        <v>212.3666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C11" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D11" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E11" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F11" t="n">
-        <v>18859.0455</v>
+        <v>3613.9235</v>
       </c>
       <c r="G11" t="n">
-        <v>212.1333333333333</v>
+        <v>212.2833333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C12" t="n">
         <v>203</v>
       </c>
       <c r="D12" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E12" t="n">
         <v>203</v>
       </c>
       <c r="F12" t="n">
-        <v>479.1129</v>
+        <v>18859.0455</v>
       </c>
       <c r="G12" t="n">
-        <v>211.9166666666667</v>
+        <v>212.1333333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E13" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F13" t="n">
-        <v>457.6118</v>
+        <v>479.1129</v>
       </c>
       <c r="G13" t="n">
-        <v>211.75</v>
+        <v>211.9166666666667</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E14" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F14" t="n">
-        <v>1.3031</v>
+        <v>457.6118</v>
       </c>
       <c r="G14" t="n">
-        <v>211.7333333333333</v>
+        <v>211.75</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E15" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F15" t="n">
-        <v>494.9174</v>
+        <v>1.3031</v>
       </c>
       <c r="G15" t="n">
-        <v>211.7</v>
+        <v>211.7333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E16" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F16" t="n">
-        <v>2275.1185</v>
+        <v>494.9174</v>
       </c>
       <c r="G16" t="n">
-        <v>211.6166666666667</v>
+        <v>211.7</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>205</v>
       </c>
       <c r="C17" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D17" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E17" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F17" t="n">
-        <v>10814.01</v>
+        <v>2275.1185</v>
       </c>
       <c r="G17" t="n">
-        <v>211.65</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,7 +877,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C18" t="n">
         <v>207</v>
@@ -833,15 +886,18 @@
         <v>207</v>
       </c>
       <c r="E18" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F18" t="n">
-        <v>7.6915</v>
+        <v>10814.01</v>
       </c>
       <c r="G18" t="n">
-        <v>211.7166666666667</v>
+        <v>211.65</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -859,15 +915,18 @@
         <v>207</v>
       </c>
       <c r="E19" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F19" t="n">
-        <v>120</v>
+        <v>7.6915</v>
       </c>
       <c r="G19" t="n">
-        <v>211.7833333333333</v>
+        <v>211.7166666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,21 +938,24 @@
         <v>207</v>
       </c>
       <c r="C20" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D20" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E20" t="n">
         <v>207</v>
       </c>
       <c r="F20" t="n">
-        <v>6179.286981990522</v>
+        <v>120</v>
       </c>
       <c r="G20" t="n">
-        <v>211.8666666666667</v>
+        <v>211.7833333333333</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,21 +967,24 @@
         <v>207</v>
       </c>
       <c r="C21" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D21" t="n">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E21" t="n">
         <v>207</v>
       </c>
       <c r="F21" t="n">
-        <v>17.3768</v>
+        <v>6179.286981990522</v>
       </c>
       <c r="G21" t="n">
-        <v>211.8833333333333</v>
+        <v>211.8666666666667</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -940,12 +1005,15 @@
         <v>207</v>
       </c>
       <c r="F22" t="n">
-        <v>685.521</v>
+        <v>17.3768</v>
       </c>
       <c r="G22" t="n">
-        <v>211.8166666666667</v>
+        <v>211.8833333333333</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -966,12 +1034,15 @@
         <v>207</v>
       </c>
       <c r="F23" t="n">
-        <v>157.1316</v>
+        <v>685.521</v>
       </c>
       <c r="G23" t="n">
-        <v>211.75</v>
+        <v>211.8166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E24" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F24" t="n">
-        <v>458.732</v>
+        <v>157.1316</v>
       </c>
       <c r="G24" t="n">
-        <v>211.6666666666667</v>
+        <v>211.75</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C25" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D25" t="n">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E25" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F25" t="n">
-        <v>1926.51</v>
+        <v>458.732</v>
       </c>
       <c r="G25" t="n">
         <v>211.6666666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,24 +1109,27 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C26" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D26" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E26" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F26" t="n">
-        <v>2204.3207</v>
+        <v>1926.51</v>
       </c>
       <c r="G26" t="n">
-        <v>211.6833333333333</v>
+        <v>211.6666666666667</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C27" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D27" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E27" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F27" t="n">
-        <v>366</v>
+        <v>2204.3207</v>
       </c>
       <c r="G27" t="n">
-        <v>211.6333333333333</v>
+        <v>211.6833333333333</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E28" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3047</v>
+        <v>366</v>
       </c>
       <c r="G28" t="n">
         <v>211.6333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C29" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D29" t="n">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E29" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F29" t="n">
-        <v>2868.7612</v>
+        <v>1.3047</v>
       </c>
       <c r="G29" t="n">
-        <v>211.5333333333333</v>
+        <v>211.6333333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C30" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D30" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E30" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F30" t="n">
-        <v>491.042</v>
+        <v>2868.7612</v>
       </c>
       <c r="G30" t="n">
-        <v>211.5</v>
+        <v>211.5333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E31" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F31" t="n">
-        <v>2275.7198</v>
+        <v>491.042</v>
       </c>
       <c r="G31" t="n">
-        <v>211.4666666666667</v>
+        <v>211.5</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E32" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F32" t="n">
-        <v>968.2791</v>
+        <v>2275.7198</v>
       </c>
       <c r="G32" t="n">
-        <v>211.5166666666667</v>
+        <v>211.4666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1226,12 +1324,15 @@
         <v>211</v>
       </c>
       <c r="F33" t="n">
-        <v>39.1427</v>
+        <v>968.2791</v>
       </c>
       <c r="G33" t="n">
-        <v>211.6</v>
+        <v>211.5166666666667</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1240,24 +1341,27 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C34" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D34" t="n">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E34" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F34" t="n">
-        <v>7514.1153</v>
+        <v>39.1427</v>
       </c>
       <c r="G34" t="n">
-        <v>211.6166666666667</v>
+        <v>211.6</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C35" t="n">
         <v>206</v>
       </c>
       <c r="D35" t="n">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E35" t="n">
         <v>206</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>7514.1153</v>
       </c>
       <c r="G35" t="n">
         <v>211.6166666666667</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1304,12 +1411,15 @@
         <v>206</v>
       </c>
       <c r="F36" t="n">
-        <v>758.1639</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>211.6166666666667</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>758.1639</v>
       </c>
       <c r="G37" t="n">
         <v>211.6166666666667</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>207</v>
       </c>
       <c r="F38" t="n">
-        <v>1290.8212</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>211.35</v>
+        <v>211.6166666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1382,12 +1498,15 @@
         <v>207</v>
       </c>
       <c r="F39" t="n">
-        <v>3224.2028</v>
+        <v>1290.8212</v>
       </c>
       <c r="G39" t="n">
-        <v>211.1833333333333</v>
+        <v>211.35</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E40" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F40" t="n">
-        <v>260.9299</v>
+        <v>3224.2028</v>
       </c>
       <c r="G40" t="n">
-        <v>211</v>
+        <v>211.1833333333333</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>206</v>
       </c>
       <c r="F41" t="n">
-        <v>519.5312</v>
+        <v>260.9299</v>
       </c>
       <c r="G41" t="n">
-        <v>210.8</v>
+        <v>211</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1460,12 +1585,15 @@
         <v>206</v>
       </c>
       <c r="F42" t="n">
-        <v>239.679</v>
+        <v>519.5312</v>
       </c>
       <c r="G42" t="n">
-        <v>210.6833333333333</v>
+        <v>210.8</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1477,21 +1605,24 @@
         <v>206</v>
       </c>
       <c r="C43" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D43" t="n">
         <v>206</v>
       </c>
       <c r="E43" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F43" t="n">
-        <v>351.6975</v>
+        <v>239.679</v>
       </c>
       <c r="G43" t="n">
-        <v>210.4666666666667</v>
+        <v>210.6833333333333</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C44" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D44" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E44" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F44" t="n">
-        <v>2203.0898</v>
+        <v>351.6975</v>
       </c>
       <c r="G44" t="n">
-        <v>210.2</v>
+        <v>210.4666666666667</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1538,12 +1672,15 @@
         <v>204</v>
       </c>
       <c r="F45" t="n">
-        <v>1797.9102</v>
+        <v>2203.0898</v>
       </c>
       <c r="G45" t="n">
-        <v>209.95</v>
+        <v>210.2</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C46" t="n">
         <v>204</v>
@@ -1561,15 +1698,18 @@
         <v>204</v>
       </c>
       <c r="E46" t="n">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F46" t="n">
-        <v>1297.446</v>
+        <v>1797.9102</v>
       </c>
       <c r="G46" t="n">
-        <v>209.6833333333333</v>
+        <v>209.95</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,7 +1718,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" t="n">
         <v>204</v>
@@ -1587,15 +1727,18 @@
         <v>204</v>
       </c>
       <c r="E47" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F47" t="n">
-        <v>11486.5753</v>
+        <v>1297.446</v>
       </c>
       <c r="G47" t="n">
-        <v>209.4333333333333</v>
+        <v>209.6833333333333</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C48" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D48" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E48" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F48" t="n">
-        <v>831.7679000000001</v>
+        <v>11486.5753</v>
       </c>
       <c r="G48" t="n">
-        <v>209.3</v>
+        <v>209.4333333333333</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,7 +1776,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C49" t="n">
         <v>206</v>
@@ -1639,15 +1785,18 @@
         <v>206</v>
       </c>
       <c r="E49" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F49" t="n">
-        <v>186.0636</v>
+        <v>831.7679000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>209.1166666666667</v>
+        <v>209.3</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1668,12 +1817,15 @@
         <v>206</v>
       </c>
       <c r="F50" t="n">
-        <v>248.3378</v>
+        <v>186.0636</v>
       </c>
       <c r="G50" t="n">
-        <v>208.9333333333333</v>
+        <v>209.1166666666667</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>206</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>248.3378</v>
       </c>
       <c r="G51" t="n">
-        <v>208.75</v>
+        <v>208.9333333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E52" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F52" t="n">
-        <v>1.235</v>
+        <v>10</v>
       </c>
       <c r="G52" t="n">
-        <v>208.6666666666667</v>
+        <v>208.75</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1737,21 +1895,24 @@
         <v>207</v>
       </c>
       <c r="C53" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D53" t="n">
         <v>207</v>
       </c>
       <c r="E53" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>1.235</v>
       </c>
       <c r="G53" t="n">
-        <v>208.55</v>
+        <v>208.6666666666667</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C54" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D54" t="n">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E54" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F54" t="n">
-        <v>641.3925</v>
+        <v>14</v>
       </c>
       <c r="G54" t="n">
-        <v>208.3833333333333</v>
+        <v>208.55</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C55" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D55" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E55" t="n">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F55" t="n">
-        <v>1.148</v>
+        <v>641.3925</v>
       </c>
       <c r="G55" t="n">
-        <v>208.1666666666667</v>
+        <v>208.3833333333333</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1812,24 +1979,27 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C56" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D56" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E56" t="n">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F56" t="n">
-        <v>3214.3736</v>
+        <v>1.148</v>
       </c>
       <c r="G56" t="n">
-        <v>207.9</v>
+        <v>208.1666666666667</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C57" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D57" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E57" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F57" t="n">
-        <v>4015.8168</v>
+        <v>3214.3736</v>
       </c>
       <c r="G57" t="n">
-        <v>207.6166666666667</v>
+        <v>207.9</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>202</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D58" t="n">
         <v>202</v>
       </c>
       <c r="E58" t="n">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F58" t="n">
-        <v>18445.4693</v>
+        <v>4015.8168</v>
       </c>
       <c r="G58" t="n">
-        <v>207.3666666666667</v>
+        <v>207.6166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C59" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D59" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E59" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0487</v>
+        <v>18445.4693</v>
       </c>
       <c r="G59" t="n">
-        <v>207.1</v>
+        <v>207.3666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,24 +2095,27 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C60" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D60" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E60" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F60" t="n">
-        <v>435.2966</v>
+        <v>1.0487</v>
       </c>
       <c r="G60" t="n">
-        <v>206.7833333333333</v>
+        <v>207.1</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1945,21 +2127,24 @@
         <v>200</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D61" t="n">
         <v>200</v>
       </c>
       <c r="E61" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F61" t="n">
-        <v>677.866</v>
+        <v>435.2966</v>
       </c>
       <c r="G61" t="n">
-        <v>206.4833333333333</v>
+        <v>206.7833333333333</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D62" t="n">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E62" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" t="n">
-        <v>2126</v>
+        <v>677.866</v>
       </c>
       <c r="G62" t="n">
-        <v>206.3833333333333</v>
+        <v>206.4833333333333</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C63" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D63" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E63" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F63" t="n">
-        <v>127</v>
+        <v>2126</v>
       </c>
       <c r="G63" t="n">
-        <v>206.2666666666667</v>
+        <v>206.3833333333333</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>205</v>
       </c>
       <c r="F64" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="G64" t="n">
-        <v>206.1833333333333</v>
+        <v>206.2666666666667</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>205</v>
       </c>
       <c r="C65" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D65" t="n">
         <v>205</v>
       </c>
       <c r="E65" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F65" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G65" t="n">
-        <v>206.0333333333333</v>
+        <v>206.1833333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2072,24 +2269,27 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C66" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D66" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E66" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F66" t="n">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G66" t="n">
-        <v>205.9666666666667</v>
+        <v>206.0333333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2098,24 +2298,27 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C67" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D67" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E67" t="n">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F67" t="n">
-        <v>2042</v>
+        <v>17</v>
       </c>
       <c r="G67" t="n">
-        <v>205.8833333333333</v>
+        <v>205.9666666666667</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C68" t="n">
         <v>202</v>
       </c>
       <c r="D68" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E68" t="n">
         <v>202</v>
       </c>
       <c r="F68" t="n">
-        <v>388.7981</v>
+        <v>2042</v>
       </c>
       <c r="G68" t="n">
-        <v>205.8166666666667</v>
+        <v>205.8833333333333</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2150,24 +2356,27 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E69" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F69" t="n">
-        <v>25.9935</v>
+        <v>388.7981</v>
       </c>
       <c r="G69" t="n">
-        <v>205.7166666666667</v>
+        <v>205.8166666666667</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2188,12 +2397,15 @@
         <v>203</v>
       </c>
       <c r="F70" t="n">
-        <v>154.2534</v>
+        <v>25.9935</v>
       </c>
       <c r="G70" t="n">
-        <v>205.6666666666667</v>
+        <v>205.7166666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2202,24 +2414,27 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E71" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F71" t="n">
-        <v>1990.3823</v>
+        <v>154.2534</v>
       </c>
       <c r="G71" t="n">
-        <v>205.65</v>
+        <v>205.6666666666667</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2240,12 +2455,15 @@
         <v>202</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>1990.3823</v>
       </c>
       <c r="G72" t="n">
-        <v>205.6333333333333</v>
+        <v>205.65</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2266,12 +2484,15 @@
         <v>202</v>
       </c>
       <c r="F73" t="n">
-        <v>612.9063</v>
+        <v>5</v>
       </c>
       <c r="G73" t="n">
-        <v>205.6</v>
+        <v>205.6333333333333</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E74" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0628</v>
+        <v>612.9063</v>
       </c>
       <c r="G74" t="n">
-        <v>205.5333333333333</v>
+        <v>205.6</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2306,24 +2530,27 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C75" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D75" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E75" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F75" t="n">
-        <v>3409.6398</v>
+        <v>1.0628</v>
       </c>
       <c r="G75" t="n">
-        <v>205.4166666666667</v>
+        <v>205.5333333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C76" t="n">
         <v>199</v>
       </c>
       <c r="D76" t="n">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E76" t="n">
         <v>199</v>
       </c>
       <c r="F76" t="n">
-        <v>264.9141</v>
+        <v>3409.6398</v>
       </c>
       <c r="G76" t="n">
-        <v>205.3166666666667</v>
+        <v>205.4166666666667</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2370,12 +2600,15 @@
         <v>199</v>
       </c>
       <c r="F77" t="n">
-        <v>4.5642</v>
+        <v>264.9141</v>
       </c>
       <c r="G77" t="n">
-        <v>205.1833333333333</v>
+        <v>205.3166666666667</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E78" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F78" t="n">
-        <v>1.7167</v>
+        <v>4.5642</v>
       </c>
       <c r="G78" t="n">
-        <v>205.1166666666667</v>
+        <v>205.1833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E79" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F79" t="n">
-        <v>158.7047</v>
+        <v>1.7167</v>
       </c>
       <c r="G79" t="n">
-        <v>205</v>
+        <v>205.1166666666667</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2439,21 +2678,24 @@
         <v>200</v>
       </c>
       <c r="C80" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D80" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E80" t="n">
         <v>200</v>
       </c>
       <c r="F80" t="n">
-        <v>21.6361</v>
+        <v>158.7047</v>
       </c>
       <c r="G80" t="n">
-        <v>204.8666666666667</v>
+        <v>205</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>200</v>
       </c>
       <c r="C81" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D81" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E81" t="n">
         <v>200</v>
       </c>
       <c r="F81" t="n">
-        <v>356.8301</v>
+        <v>21.6361</v>
       </c>
       <c r="G81" t="n">
-        <v>204.75</v>
+        <v>204.8666666666667</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C82" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D82" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E82" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F82" t="n">
-        <v>1.8334</v>
+        <v>356.8301</v>
       </c>
       <c r="G82" t="n">
-        <v>204.6833333333333</v>
+        <v>204.75</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2762,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C83" t="n">
         <v>203</v>
@@ -2523,15 +2771,18 @@
         <v>203</v>
       </c>
       <c r="E83" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F83" t="n">
-        <v>6492.7262</v>
+        <v>1.8334</v>
       </c>
       <c r="G83" t="n">
-        <v>204.6166666666667</v>
+        <v>204.6833333333333</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C84" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D84" t="n">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E84" t="n">
         <v>199</v>
       </c>
       <c r="F84" t="n">
-        <v>2.0848</v>
+        <v>6492.7262</v>
       </c>
       <c r="G84" t="n">
-        <v>204.5</v>
+        <v>204.6166666666667</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E85" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F85" t="n">
-        <v>1.4852</v>
+        <v>2.0848</v>
       </c>
       <c r="G85" t="n">
-        <v>204.3666666666667</v>
+        <v>204.5</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>203</v>
       </c>
       <c r="F86" t="n">
-        <v>20</v>
+        <v>1.4852</v>
       </c>
       <c r="G86" t="n">
-        <v>204.2166666666667</v>
+        <v>204.3666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>203</v>
       </c>
       <c r="F87" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G87" t="n">
-        <v>204.1333333333333</v>
+        <v>204.2166666666667</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2659,9 +2922,12 @@
         <v>6</v>
       </c>
       <c r="G88" t="n">
-        <v>203.9833333333333</v>
+        <v>204.1333333333333</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,24 +2936,27 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E89" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F89" t="n">
         <v>6</v>
       </c>
       <c r="G89" t="n">
-        <v>203.9</v>
+        <v>203.9833333333333</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>201</v>
       </c>
       <c r="F90" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G90" t="n">
-        <v>203.8</v>
+        <v>203.9</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>201</v>
       </c>
       <c r="F91" t="n">
-        <v>4.3034</v>
+        <v>5</v>
       </c>
       <c r="G91" t="n">
-        <v>203.65</v>
+        <v>203.8</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>201</v>
       </c>
       <c r="F92" t="n">
-        <v>796</v>
+        <v>4.3034</v>
       </c>
       <c r="G92" t="n">
-        <v>203.4833333333333</v>
+        <v>203.65</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>201</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9083</v>
+        <v>796</v>
       </c>
       <c r="G93" t="n">
-        <v>203.3166666666667</v>
+        <v>203.4833333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E94" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F94" t="n">
-        <v>1.343</v>
+        <v>0.9083</v>
       </c>
       <c r="G94" t="n">
-        <v>203.25</v>
+        <v>203.3166666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>202</v>
       </c>
       <c r="F95" t="n">
-        <v>1494.907</v>
+        <v>1.343</v>
       </c>
       <c r="G95" t="n">
-        <v>203.1833333333333</v>
+        <v>203.25</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E96" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F96" t="n">
-        <v>1.0264</v>
+        <v>1494.907</v>
       </c>
       <c r="G96" t="n">
-        <v>203.15</v>
+        <v>203.1833333333333</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>204</v>
       </c>
       <c r="F97" t="n">
-        <v>1.098</v>
+        <v>1.0264</v>
       </c>
       <c r="G97" t="n">
-        <v>203.1</v>
+        <v>203.15</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>204</v>
       </c>
       <c r="F98" t="n">
-        <v>2140.3857</v>
+        <v>1.098</v>
       </c>
       <c r="G98" t="n">
-        <v>203.05</v>
+        <v>203.1</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E99" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F99" t="n">
-        <v>1.5585</v>
+        <v>2140.3857</v>
       </c>
       <c r="G99" t="n">
-        <v>203.0166666666667</v>
+        <v>203.05</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2968,12 +3267,15 @@
         <v>205</v>
       </c>
       <c r="F100" t="n">
-        <v>10</v>
+        <v>1.5585</v>
       </c>
       <c r="G100" t="n">
-        <v>203</v>
+        <v>203.0166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>205</v>
       </c>
       <c r="F101" t="n">
-        <v>8.824299999999999</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>202.9833333333333</v>
+        <v>203</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3020,12 +3325,15 @@
         <v>205</v>
       </c>
       <c r="F102" t="n">
-        <v>48.7804</v>
+        <v>8.824299999999999</v>
       </c>
       <c r="G102" t="n">
-        <v>202.9666666666667</v>
+        <v>202.9833333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3046,12 +3354,15 @@
         <v>205</v>
       </c>
       <c r="F103" t="n">
-        <v>319.1257</v>
+        <v>48.7804</v>
       </c>
       <c r="G103" t="n">
         <v>202.9666666666667</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>205</v>
       </c>
       <c r="C104" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D104" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E104" t="n">
         <v>205</v>
       </c>
       <c r="F104" t="n">
-        <v>3269.8424352657</v>
+        <v>319.1257</v>
       </c>
       <c r="G104" t="n">
-        <v>203.0166666666667</v>
+        <v>202.9666666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C105" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D105" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E105" t="n">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F105" t="n">
-        <v>15.1919</v>
+        <v>3269.8424352657</v>
       </c>
       <c r="G105" t="n">
-        <v>202.9833333333333</v>
+        <v>203.0166666666667</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E106" t="n">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F106" t="n">
-        <v>49.5049</v>
+        <v>15.1919</v>
       </c>
       <c r="G106" t="n">
-        <v>203.0333333333333</v>
+        <v>202.9833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E107" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F107" t="n">
-        <v>48.3091</v>
+        <v>49.5049</v>
       </c>
       <c r="G107" t="n">
-        <v>203.0666666666667</v>
+        <v>203.0333333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3176,12 +3499,15 @@
         <v>206</v>
       </c>
       <c r="F108" t="n">
-        <v>2.1</v>
+        <v>48.3091</v>
       </c>
       <c r="G108" t="n">
         <v>203.0666666666667</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3202,12 +3528,15 @@
         <v>206</v>
       </c>
       <c r="F109" t="n">
-        <v>22.0339</v>
+        <v>2.1</v>
       </c>
       <c r="G109" t="n">
         <v>203.0666666666667</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E110" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F110" t="n">
-        <v>1.9414</v>
+        <v>22.0339</v>
       </c>
       <c r="G110" t="n">
-        <v>203.05</v>
+        <v>203.0666666666667</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E111" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F111" t="n">
-        <v>3.0992</v>
+        <v>1.9414</v>
       </c>
       <c r="G111" t="n">
         <v>203.05</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>206</v>
       </c>
       <c r="F112" t="n">
-        <v>2130.7165</v>
+        <v>3.0992</v>
       </c>
       <c r="G112" t="n">
-        <v>203.0333333333333</v>
+        <v>203.05</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C113" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D113" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E113" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F113" t="n">
-        <v>8352.2186</v>
+        <v>2130.7165</v>
       </c>
       <c r="G113" t="n">
-        <v>203.0833333333333</v>
+        <v>203.0333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C114" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D114" t="n">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E114" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F114" t="n">
-        <v>4010</v>
+        <v>8352.2186</v>
       </c>
       <c r="G114" t="n">
-        <v>203.1666666666667</v>
+        <v>203.0833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E115" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F115" t="n">
-        <v>21</v>
+        <v>4010</v>
       </c>
       <c r="G115" t="n">
-        <v>203.2333333333333</v>
+        <v>203.1666666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>210</v>
       </c>
       <c r="F116" t="n">
-        <v>4010</v>
+        <v>21</v>
       </c>
       <c r="G116" t="n">
-        <v>203.35</v>
+        <v>203.2333333333333</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>210</v>
       </c>
       <c r="F117" t="n">
-        <v>4716.9811</v>
+        <v>4010</v>
       </c>
       <c r="G117" t="n">
-        <v>203.4833333333333</v>
+        <v>203.35</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>210</v>
       </c>
       <c r="F118" t="n">
-        <v>2856.2295</v>
+        <v>4716.9811</v>
       </c>
       <c r="G118" t="n">
-        <v>203.65</v>
+        <v>203.4833333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>210</v>
       </c>
       <c r="C119" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D119" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E119" t="n">
         <v>210</v>
       </c>
       <c r="F119" t="n">
-        <v>1031.9152</v>
+        <v>2856.2295</v>
       </c>
       <c r="G119" t="n">
-        <v>203.7833333333333</v>
+        <v>203.65</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C120" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D120" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E120" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F120" t="n">
-        <v>318.2399</v>
+        <v>1031.9152</v>
       </c>
       <c r="G120" t="n">
-        <v>204</v>
+        <v>203.7833333333333</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>212</v>
       </c>
       <c r="F121" t="n">
-        <v>9124.5383</v>
+        <v>318.2399</v>
       </c>
       <c r="G121" t="n">
-        <v>204.2</v>
+        <v>204</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>212</v>
       </c>
       <c r="F122" t="n">
-        <v>3681.6715</v>
+        <v>9124.5383</v>
       </c>
       <c r="G122" t="n">
-        <v>204.3</v>
+        <v>204.2</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,545 +3922,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C123" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D123" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E123" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F123" t="n">
-        <v>10</v>
+        <v>3681.6715</v>
       </c>
       <c r="G123" t="n">
-        <v>204.4333333333333</v>
+        <v>204.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>214</v>
-      </c>
-      <c r="C124" t="n">
-        <v>214</v>
-      </c>
-      <c r="D124" t="n">
-        <v>214</v>
-      </c>
-      <c r="E124" t="n">
-        <v>214</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1518.4957</v>
-      </c>
-      <c r="G124" t="n">
-        <v>204.5833333333333</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>214</v>
-      </c>
-      <c r="C125" t="n">
-        <v>214</v>
-      </c>
-      <c r="D125" t="n">
-        <v>214</v>
-      </c>
-      <c r="E125" t="n">
-        <v>214</v>
-      </c>
-      <c r="F125" t="n">
-        <v>900.5802</v>
-      </c>
-      <c r="G125" t="n">
-        <v>204.7833333333333</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>215</v>
-      </c>
-      <c r="C126" t="n">
-        <v>216</v>
-      </c>
-      <c r="D126" t="n">
-        <v>216</v>
-      </c>
-      <c r="E126" t="n">
-        <v>215</v>
-      </c>
-      <c r="F126" t="n">
-        <v>5857.5168</v>
-      </c>
-      <c r="G126" t="n">
-        <v>204.95</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>217</v>
-      </c>
-      <c r="C127" t="n">
-        <v>215</v>
-      </c>
-      <c r="D127" t="n">
-        <v>217</v>
-      </c>
-      <c r="E127" t="n">
-        <v>215</v>
-      </c>
-      <c r="F127" t="n">
-        <v>3502.8982</v>
-      </c>
-      <c r="G127" t="n">
-        <v>205.1666666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>215</v>
-      </c>
-      <c r="C128" t="n">
-        <v>215</v>
-      </c>
-      <c r="D128" t="n">
-        <v>215</v>
-      </c>
-      <c r="E128" t="n">
-        <v>215</v>
-      </c>
-      <c r="F128" t="n">
-        <v>851.9963</v>
-      </c>
-      <c r="G128" t="n">
-        <v>205.3833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>215</v>
-      </c>
-      <c r="C129" t="n">
-        <v>215</v>
-      </c>
-      <c r="D129" t="n">
-        <v>215</v>
-      </c>
-      <c r="E129" t="n">
-        <v>215</v>
-      </c>
-      <c r="F129" t="n">
-        <v>32.2255</v>
-      </c>
-      <c r="G129" t="n">
-        <v>205.5833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>214</v>
-      </c>
-      <c r="C130" t="n">
-        <v>214</v>
-      </c>
-      <c r="D130" t="n">
-        <v>214</v>
-      </c>
-      <c r="E130" t="n">
-        <v>214</v>
-      </c>
-      <c r="F130" t="n">
-        <v>64.813</v>
-      </c>
-      <c r="G130" t="n">
-        <v>205.7666666666667</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>213</v>
-      </c>
-      <c r="C131" t="n">
-        <v>213</v>
-      </c>
-      <c r="D131" t="n">
-        <v>213</v>
-      </c>
-      <c r="E131" t="n">
-        <v>213</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2211.2715</v>
-      </c>
-      <c r="G131" t="n">
-        <v>205.95</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>214</v>
-      </c>
-      <c r="C132" t="n">
-        <v>214</v>
-      </c>
-      <c r="D132" t="n">
-        <v>214</v>
-      </c>
-      <c r="E132" t="n">
-        <v>214</v>
-      </c>
-      <c r="F132" t="n">
-        <v>583.4672</v>
-      </c>
-      <c r="G132" t="n">
-        <v>206.15</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>213</v>
-      </c>
-      <c r="C133" t="n">
-        <v>213</v>
-      </c>
-      <c r="D133" t="n">
-        <v>213</v>
-      </c>
-      <c r="E133" t="n">
-        <v>213</v>
-      </c>
-      <c r="F133" t="n">
-        <v>1169.0064</v>
-      </c>
-      <c r="G133" t="n">
-        <v>206.3333333333333</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>211</v>
-      </c>
-      <c r="C134" t="n">
-        <v>211</v>
-      </c>
-      <c r="D134" t="n">
-        <v>211</v>
-      </c>
-      <c r="E134" t="n">
-        <v>211</v>
-      </c>
-      <c r="F134" t="n">
-        <v>122.6203</v>
-      </c>
-      <c r="G134" t="n">
-        <v>206.4666666666667</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>214</v>
-      </c>
-      <c r="C135" t="n">
-        <v>214</v>
-      </c>
-      <c r="D135" t="n">
-        <v>214</v>
-      </c>
-      <c r="E135" t="n">
-        <v>214</v>
-      </c>
-      <c r="F135" t="n">
-        <v>128.927</v>
-      </c>
-      <c r="G135" t="n">
-        <v>206.7166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>214</v>
-      </c>
-      <c r="C136" t="n">
-        <v>214</v>
-      </c>
-      <c r="D136" t="n">
-        <v>214</v>
-      </c>
-      <c r="E136" t="n">
-        <v>214</v>
-      </c>
-      <c r="F136" t="n">
-        <v>1.073</v>
-      </c>
-      <c r="G136" t="n">
-        <v>206.9666666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>213</v>
-      </c>
-      <c r="C137" t="n">
-        <v>213</v>
-      </c>
-      <c r="D137" t="n">
-        <v>213</v>
-      </c>
-      <c r="E137" t="n">
-        <v>213</v>
-      </c>
-      <c r="F137" t="n">
-        <v>641.595</v>
-      </c>
-      <c r="G137" t="n">
-        <v>207.2</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>215</v>
-      </c>
-      <c r="C138" t="n">
-        <v>215</v>
-      </c>
-      <c r="D138" t="n">
-        <v>215</v>
-      </c>
-      <c r="E138" t="n">
-        <v>215</v>
-      </c>
-      <c r="F138" t="n">
-        <v>3387.3441</v>
-      </c>
-      <c r="G138" t="n">
-        <v>207.4</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>214</v>
-      </c>
-      <c r="C139" t="n">
-        <v>214</v>
-      </c>
-      <c r="D139" t="n">
-        <v>214</v>
-      </c>
-      <c r="E139" t="n">
-        <v>214</v>
-      </c>
-      <c r="F139" t="n">
-        <v>57</v>
-      </c>
-      <c r="G139" t="n">
-        <v>207.6333333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>214</v>
-      </c>
-      <c r="C140" t="n">
-        <v>214</v>
-      </c>
-      <c r="D140" t="n">
-        <v>214</v>
-      </c>
-      <c r="E140" t="n">
-        <v>214</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2.0057</v>
-      </c>
-      <c r="G140" t="n">
-        <v>207.8166666666667</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>214</v>
-      </c>
-      <c r="C141" t="n">
-        <v>214</v>
-      </c>
-      <c r="D141" t="n">
-        <v>214</v>
-      </c>
-      <c r="E141" t="n">
-        <v>214</v>
-      </c>
-      <c r="F141" t="n">
-        <v>2289</v>
-      </c>
-      <c r="G141" t="n">
-        <v>208.05</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>215</v>
-      </c>
-      <c r="C142" t="n">
-        <v>215</v>
-      </c>
-      <c r="D142" t="n">
-        <v>215</v>
-      </c>
-      <c r="E142" t="n">
-        <v>215</v>
-      </c>
-      <c r="F142" t="n">
-        <v>20</v>
-      </c>
-      <c r="G142" t="n">
-        <v>208.25</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>214</v>
-      </c>
-      <c r="C143" t="n">
-        <v>214</v>
-      </c>
-      <c r="D143" t="n">
-        <v>214</v>
-      </c>
-      <c r="E143" t="n">
-        <v>214</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1466.0877</v>
-      </c>
-      <c r="G143" t="n">
-        <v>208.4333333333333</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
+      <c r="I123" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
